--- a/xlsx/builtin/动物趣多多.xlsx
+++ b/xlsx/builtin/动物趣多多.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr date1904="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PuzzleSister\xlsx\builtin\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28035" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28035" windowHeight="16440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DLC" sheetId="1" r:id="rId1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="690">
   <si>
     <t>id</t>
   </si>
@@ -893,22 +888,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>长颈鹿每晚只睡___个小时</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>半小时</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>长颈鹿每晚只睡2小时。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>____的平均寿命不超过1天。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2349,11 +2328,6 @@
 龟:一般能活到100-150年以上,现在的记录中最长寿的大乌龟是阿德维塔已经有255岁了。</t>
   </si>
   <si>
-    <t>亚马逊森蚺:最长可达10米,重达225公斤,有成年男子躯干粗。
-蟒蛇:印尼蟒蛇王吉尼斯世界记录保持者,自然体长16.5米,可轻易缴死并吞噬一个1.8米的成人,一般以大鳄为主食。
-盲蛇:身长为20~30厘米、粗8毫米左右。生活在外高加索和中亚南部,以蚂蚁和其他小昆虫为食。</t>
-  </si>
-  <si>
     <t>南美秃鹫:体长约130厘米,体重达10千克,翼展长度可超过3米。
 蜂鸟:顾名思义和蜜蜂大小差不多,2-5厘米不等,能悬停在空中。
 漂泊信天翁:生活在南冰洋附近。漂泊信天翁翅翼展平均达3.1m,最长可达3.7m</t>
@@ -2628,10 +2602,6 @@
   </si>
   <si>
     <t>寿命最长的动物是？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>最长的蛇是？</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2784,6 +2754,47 @@
   <si>
     <t>dongwuquduoduo001</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界上最长的蛇是？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚马逊森蚺 (长度：10米以上；体重：225公斤以上)
+亚马逊森蚺，是当今世界上最大的蛇，栖息于南美洲，最长可达10米以上，重达二百二十五公斤以上，粗如成年男子的躯干；但一般森蚺长度在5米左右。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>生存在条件严苛环境的野生动物，通常有一副即使睡眠时间短，精神恢复也快的身体。长颈鹿尤其显著，只需20分钟睡眠即可，且睡醒后，绝不会在意犹未尽，睡回笼觉。令人惊异的是，20分钟的睡眠时间中，实际上睡沈时间只有2分钟，剩下的18分钟，身体虽然在休息状态，但脑筋却非常清醒。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>长颈鹿每天睡多久？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20分钟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4小时</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2小时</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1小时</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4388,11 +4399,11 @@
   </sheetPr>
   <dimension ref="A1:IY23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="18" customHeight="1"/>
@@ -4424,10 +4435,10 @@
         <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -4451,10 +4462,10 @@
         <v>21</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
@@ -4462,25 +4473,25 @@
     </row>
     <row r="3" spans="1:259" ht="165" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="C3" s="14">
         <v>0</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="H3" s="15" t="s">
         <v>22</v>
@@ -4711,8 +4722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23" defaultRowHeight="31.5" customHeight="1"/>
@@ -4931,7 +4942,7 @@
         <v>157</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="31.5" customHeight="1">
@@ -4983,7 +4994,7 @@
         <v>171</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="31.5" customHeight="1">
@@ -5121,25 +5132,25 @@
         <v>35</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>198</v>
+        <v>684</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="D16" s="23">
-        <v>1</v>
-      </c>
-      <c r="E16" s="23">
-        <v>2</v>
-      </c>
-      <c r="F16" s="23">
-        <v>3</v>
+        <v>687</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>688</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>689</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>685</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>200</v>
+        <v>686</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>201</v>
+        <v>683</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="31.5" customHeight="1">
@@ -5147,25 +5158,25 @@
         <v>36</v>
       </c>
       <c r="B17" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="D17" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="H17" s="23" t="s">
         <v>206</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="31.5" customHeight="1">
@@ -5173,25 +5184,25 @@
         <v>37</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C18" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="G18" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="H18" s="23" t="s">
         <v>212</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="31.5" customHeight="1">
@@ -5199,25 +5210,25 @@
         <v>38</v>
       </c>
       <c r="B19" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="H19" s="23" t="s">
         <v>218</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="31.5" customHeight="1">
@@ -5225,25 +5236,25 @@
         <v>39</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="31.5" customHeight="1">
@@ -5251,25 +5262,25 @@
         <v>40</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G21" s="23" t="s">
         <v>196</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="31.5" customHeight="1">
@@ -5277,25 +5288,25 @@
         <v>41</v>
       </c>
       <c r="B22" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="F22" s="23" t="s">
         <v>236</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>240</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>192</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="31.5" customHeight="1">
@@ -5303,25 +5314,25 @@
         <v>42</v>
       </c>
       <c r="B23" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="F23" s="23" t="s">
         <v>242</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>246</v>
       </c>
       <c r="G23" s="23" t="s">
         <v>163</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="31.5" customHeight="1">
@@ -5329,25 +5340,25 @@
         <v>43</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C24" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="F24" s="23" t="s">
         <v>249</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>253</v>
       </c>
       <c r="G24" s="23" t="s">
         <v>163</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="31.5" customHeight="1">
@@ -5355,25 +5366,25 @@
         <v>44</v>
       </c>
       <c r="B25" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="F25" s="23" t="s">
         <v>255</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>259</v>
       </c>
       <c r="G25" s="23" t="s">
         <v>196</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="31.5" customHeight="1">
@@ -5381,25 +5392,25 @@
         <v>45</v>
       </c>
       <c r="B26" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="H26" s="23" t="s">
         <v>261</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="G26" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="H26" s="23" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="31.5" customHeight="1">
@@ -5407,25 +5418,25 @@
         <v>46</v>
       </c>
       <c r="B27" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="F27" s="23" t="s">
         <v>266</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>270</v>
       </c>
       <c r="G27" s="23" t="s">
         <v>192</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="31.5" customHeight="1">
@@ -5433,25 +5444,25 @@
         <v>47</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E28" s="23" t="s">
         <v>181</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="31.5" customHeight="1">
@@ -5459,25 +5470,25 @@
         <v>48</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G29" s="23" t="s">
         <v>163</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="31.5" customHeight="1">
@@ -5485,25 +5496,25 @@
         <v>49</v>
       </c>
       <c r="B30" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="H30" s="23" t="s">
         <v>280</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="H30" s="23" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="31.5" customHeight="1">
@@ -5511,25 +5522,25 @@
         <v>50</v>
       </c>
       <c r="B31" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="F31" s="23" t="s">
         <v>285</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>289</v>
       </c>
       <c r="G31" s="23" t="s">
         <v>196</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="31.5" customHeight="1">
@@ -5537,25 +5548,25 @@
         <v>51</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C32" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="D32" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="D32" s="23" t="s">
-        <v>296</v>
-      </c>
       <c r="E32" s="23" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G32" s="23" t="s">
         <v>163</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="31.5" customHeight="1">
@@ -5563,25 +5574,25 @@
         <v>52</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C33" s="23" t="s">
         <v>189</v>
       </c>
       <c r="D33" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="H33" s="23" t="s">
         <v>298</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="F33" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="G33" s="23" t="s">
-        <v>301</v>
-      </c>
-      <c r="H33" s="23" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="31.5" customHeight="1">
@@ -5589,25 +5600,25 @@
         <v>53</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C34" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="H34" s="23" t="s">
         <v>303</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="F34" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="G34" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="H34" s="23" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="31.5" customHeight="1">
@@ -5615,25 +5626,25 @@
         <v>54</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="31.5" customHeight="1">
@@ -5641,25 +5652,25 @@
         <v>55</v>
       </c>
       <c r="B36" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="H36" s="23" t="s">
         <v>313</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>314</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>315</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="F36" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="G36" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="H36" s="23" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="31.5" customHeight="1">
@@ -5667,25 +5678,25 @@
         <v>56</v>
       </c>
       <c r="B37" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="D37" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="C37" s="23" t="s">
-        <v>321</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>322</v>
-      </c>
       <c r="E37" s="23" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G37" s="23" t="s">
         <v>171</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="31.5" customHeight="1">
@@ -5693,25 +5704,25 @@
         <v>57</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G38" s="23" t="s">
         <v>187</v>
       </c>
       <c r="H38" s="23" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="31.5" customHeight="1">
@@ -5719,25 +5730,25 @@
         <v>58</v>
       </c>
       <c r="B39" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="E39" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="F39" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="G39" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="H39" s="23" t="s">
         <v>330</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="F39" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="G39" s="23" t="s">
-        <v>331</v>
-      </c>
-      <c r="H39" s="23" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="31.5" customHeight="1">
@@ -5745,25 +5756,25 @@
         <v>59</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G40" s="23" t="s">
         <v>163</v>
       </c>
       <c r="H40" s="23" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="31.5" customHeight="1">
@@ -5771,25 +5782,25 @@
         <v>60</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G41" s="23" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H41" s="23" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="31.5" customHeight="1">
@@ -5797,25 +5808,25 @@
         <v>61</v>
       </c>
       <c r="B42" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="F42" s="23" t="s">
         <v>342</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>343</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>344</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="F42" s="23" t="s">
-        <v>346</v>
       </c>
       <c r="G42" s="23" t="s">
         <v>163</v>
       </c>
       <c r="H42" s="23" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="31.5" customHeight="1">
@@ -5823,25 +5834,25 @@
         <v>62</v>
       </c>
       <c r="B43" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="F43" s="23" t="s">
         <v>348</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>350</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="E43" s="23" t="s">
-        <v>349</v>
-      </c>
-      <c r="F43" s="23" t="s">
-        <v>352</v>
       </c>
       <c r="G43" s="23" t="s">
         <v>196</v>
       </c>
       <c r="H43" s="23" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="31.5" customHeight="1">
@@ -5849,25 +5860,25 @@
         <v>63</v>
       </c>
       <c r="B44" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="F44" s="23" t="s">
         <v>353</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>354</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>356</v>
-      </c>
-      <c r="F44" s="23" t="s">
-        <v>357</v>
       </c>
       <c r="G44" s="23" t="s">
         <v>171</v>
       </c>
       <c r="H44" s="23" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="31.5" customHeight="1">
@@ -5875,25 +5886,25 @@
         <v>64</v>
       </c>
       <c r="B45" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="F45" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="G45" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="H45" s="23" t="s">
         <v>360</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>361</v>
-      </c>
-      <c r="E45" s="23" t="s">
-        <v>362</v>
-      </c>
-      <c r="F45" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="G45" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="H45" s="23" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="31.5" customHeight="1">
@@ -5901,25 +5912,25 @@
         <v>65</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G46" s="23" t="s">
         <v>183</v>
       </c>
       <c r="H46" s="23" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="31.5" customHeight="1">
@@ -5927,25 +5938,25 @@
         <v>66</v>
       </c>
       <c r="B47" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="F47" s="23" t="s">
         <v>369</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="E47" s="23" t="s">
-        <v>372</v>
-      </c>
-      <c r="F47" s="23" t="s">
-        <v>373</v>
       </c>
       <c r="G47" s="23" t="s">
         <v>163</v>
       </c>
       <c r="H47" s="23" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="31.5" customHeight="1">
@@ -5953,25 +5964,25 @@
         <v>67</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C48" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="F48" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="D48" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="E48" s="23" t="s">
-        <v>377</v>
-      </c>
-      <c r="F48" s="23" t="s">
-        <v>379</v>
-      </c>
       <c r="G48" s="23" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H48" s="23" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="31.5" customHeight="1">
@@ -5979,25 +5990,25 @@
         <v>68</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G49" s="23" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H49" s="23" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="31.5" customHeight="1">
@@ -6005,25 +6016,25 @@
         <v>69</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G50" s="23" t="s">
         <v>196</v>
       </c>
       <c r="H50" s="23" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="31.5" customHeight="1">
@@ -6031,25 +6042,25 @@
         <v>70</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="G51" s="23" t="s">
         <v>187</v>
       </c>
       <c r="H51" s="23" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="31.5" customHeight="1">
@@ -6057,25 +6068,25 @@
         <v>71</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H52" s="23" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="31.5" customHeight="1">
@@ -6083,25 +6094,25 @@
         <v>72</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G53" s="23" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H53" s="23" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="31.5" customHeight="1">
@@ -6109,25 +6120,25 @@
         <v>73</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="C54" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="G54" s="23" t="s">
         <v>404</v>
       </c>
-      <c r="D54" s="23" t="s">
-        <v>405</v>
-      </c>
-      <c r="E54" s="23" t="s">
-        <v>406</v>
-      </c>
-      <c r="F54" s="23" t="s">
-        <v>407</v>
-      </c>
-      <c r="G54" s="23" t="s">
-        <v>408</v>
-      </c>
       <c r="H54" s="23" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="31.5" customHeight="1">
@@ -6135,25 +6146,25 @@
         <v>74</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G55" s="23" t="s">
         <v>10</v>
       </c>
       <c r="H55" s="23" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="31.5" customHeight="1">
@@ -6161,25 +6172,25 @@
         <v>75</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="C56" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>411</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="G56" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="D56" s="23" t="s">
-        <v>414</v>
-      </c>
-      <c r="E56" s="23" t="s">
-        <v>415</v>
-      </c>
-      <c r="F56" s="23" t="s">
-        <v>416</v>
-      </c>
-      <c r="G56" s="23" t="s">
-        <v>417</v>
-      </c>
       <c r="H56" s="23" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="31.5" customHeight="1">
@@ -6187,25 +6198,25 @@
         <v>76</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C57" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="F57" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="D57" s="23" t="s">
-        <v>419</v>
-      </c>
-      <c r="E57" s="23" t="s">
-        <v>420</v>
-      </c>
-      <c r="F57" s="23" t="s">
-        <v>422</v>
-      </c>
       <c r="G57" s="23" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="H57" s="23" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="31.5" customHeight="1">
@@ -6213,25 +6224,25 @@
         <v>77</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="C58" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="F58" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="G58" s="23" t="s">
         <v>423</v>
       </c>
-      <c r="D58" s="23" t="s">
-        <v>424</v>
-      </c>
-      <c r="E58" s="23" t="s">
-        <v>425</v>
-      </c>
-      <c r="F58" s="23" t="s">
-        <v>426</v>
-      </c>
-      <c r="G58" s="23" t="s">
-        <v>427</v>
-      </c>
       <c r="H58" s="23" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="31.5" customHeight="1">
@@ -6239,25 +6250,25 @@
         <v>78</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="G59" s="23" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H59" s="23" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="31.5" customHeight="1">
@@ -6265,25 +6276,25 @@
         <v>79</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C60" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="F60" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="G60" s="23" t="s">
         <v>432</v>
       </c>
-      <c r="D60" s="23" t="s">
-        <v>433</v>
-      </c>
-      <c r="E60" s="23" t="s">
-        <v>434</v>
-      </c>
-      <c r="F60" s="23" t="s">
-        <v>435</v>
-      </c>
-      <c r="G60" s="23" t="s">
-        <v>436</v>
-      </c>
       <c r="H60" s="23" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="31.5" customHeight="1">
@@ -6291,25 +6302,25 @@
         <v>80</v>
       </c>
       <c r="B61" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="D61" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="E61" s="23" t="s">
         <v>437</v>
       </c>
-      <c r="C61" s="23" t="s">
+      <c r="F61" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="G61" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="D61" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="E61" s="23" t="s">
-        <v>441</v>
-      </c>
-      <c r="F61" s="23" t="s">
-        <v>440</v>
-      </c>
-      <c r="G61" s="23" t="s">
-        <v>442</v>
-      </c>
       <c r="H61" s="23" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="31.5" customHeight="1">
@@ -6317,25 +6328,25 @@
         <v>81</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C62" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="F62" s="23" t="s">
+        <v>442</v>
+      </c>
+      <c r="G62" s="23" t="s">
         <v>443</v>
       </c>
-      <c r="D62" s="23" t="s">
-        <v>444</v>
-      </c>
-      <c r="E62" s="23" t="s">
-        <v>445</v>
-      </c>
-      <c r="F62" s="23" t="s">
-        <v>446</v>
-      </c>
-      <c r="G62" s="23" t="s">
-        <v>447</v>
-      </c>
       <c r="H62" s="23" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="31.5" customHeight="1">
@@ -6343,25 +6354,25 @@
         <v>82</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F63" s="23" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G63" s="23" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H63" s="23" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="31.5" customHeight="1">
@@ -6369,25 +6380,25 @@
         <v>83</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C64" s="23" t="s">
+        <v>454</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>456</v>
+      </c>
+      <c r="E64" s="23" t="s">
         <v>458</v>
       </c>
-      <c r="D64" s="23" t="s">
-        <v>460</v>
-      </c>
-      <c r="E64" s="23" t="s">
-        <v>462</v>
-      </c>
       <c r="F64" s="23" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G64" s="23" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H64" s="23" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="31.5" customHeight="1">
@@ -6395,25 +6406,25 @@
         <v>84</v>
       </c>
       <c r="B65" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="F65" s="23" t="s">
         <v>464</v>
       </c>
-      <c r="C65" s="23" t="s">
-        <v>462</v>
-      </c>
-      <c r="D65" s="23" t="s">
-        <v>466</v>
-      </c>
-      <c r="E65" s="23" t="s">
-        <v>467</v>
-      </c>
-      <c r="F65" s="23" t="s">
-        <v>468</v>
-      </c>
       <c r="G65" s="23" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H65" s="23" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="31.5" customHeight="1">
@@ -6421,25 +6432,25 @@
         <v>85</v>
       </c>
       <c r="B66" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="E66" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="C66" s="23" t="s">
+      <c r="F66" s="23" t="s">
         <v>453</v>
       </c>
-      <c r="D66" s="23" t="s">
-        <v>454</v>
-      </c>
-      <c r="E66" s="23" t="s">
-        <v>456</v>
-      </c>
-      <c r="F66" s="23" t="s">
-        <v>457</v>
-      </c>
       <c r="G66" s="23" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="H66" s="23" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="31.5" customHeight="1">
@@ -6447,25 +6458,25 @@
         <v>86</v>
       </c>
       <c r="B67" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>468</v>
+      </c>
+      <c r="F67" s="23" t="s">
         <v>469</v>
       </c>
-      <c r="C67" s="23" t="s">
+      <c r="G67" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="H67" s="23" t="s">
         <v>470</v>
-      </c>
-      <c r="D67" s="23" t="s">
-        <v>471</v>
-      </c>
-      <c r="E67" s="23" t="s">
-        <v>472</v>
-      </c>
-      <c r="F67" s="23" t="s">
-        <v>473</v>
-      </c>
-      <c r="G67" s="23" t="s">
-        <v>447</v>
-      </c>
-      <c r="H67" s="23" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="31.5" customHeight="1">
@@ -6473,25 +6484,25 @@
         <v>87</v>
       </c>
       <c r="B68" s="23" t="s">
+        <v>471</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>472</v>
+      </c>
+      <c r="D68" s="23" t="s">
+        <v>473</v>
+      </c>
+      <c r="E68" s="23" t="s">
         <v>475</v>
       </c>
-      <c r="C68" s="23" t="s">
+      <c r="F68" s="23" t="s">
         <v>476</v>
       </c>
-      <c r="D68" s="23" t="s">
+      <c r="G68" s="23" t="s">
         <v>477</v>
       </c>
-      <c r="E68" s="23" t="s">
-        <v>479</v>
-      </c>
-      <c r="F68" s="23" t="s">
-        <v>480</v>
-      </c>
-      <c r="G68" s="23" t="s">
-        <v>481</v>
-      </c>
       <c r="H68" s="23" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="31.5" customHeight="1">
@@ -6499,25 +6510,25 @@
         <v>88</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E69" s="23" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F69" s="23" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G69" s="23" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H69" s="23" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="31.5" customHeight="1">
@@ -6525,25 +6536,25 @@
         <v>89</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C70" s="23" t="s">
+        <v>478</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>479</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>480</v>
+      </c>
+      <c r="F70" s="23" t="s">
         <v>482</v>
       </c>
-      <c r="D70" s="23" t="s">
+      <c r="G70" s="23" t="s">
         <v>483</v>
       </c>
-      <c r="E70" s="23" t="s">
-        <v>484</v>
-      </c>
-      <c r="F70" s="23" t="s">
-        <v>486</v>
-      </c>
-      <c r="G70" s="23" t="s">
-        <v>487</v>
-      </c>
       <c r="H70" s="23" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="31.5" customHeight="1">
@@ -6551,25 +6562,25 @@
         <v>90</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F71" s="23" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G71" s="23" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="H71" s="23" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="31.5" customHeight="1">
@@ -6577,25 +6588,25 @@
         <v>91</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F72" s="23" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G72" s="23" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H72" s="23" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="31.5" customHeight="1">
@@ -6603,25 +6614,25 @@
         <v>92</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E73" s="23" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F73" s="23" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="G73" s="23" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H73" s="23" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="31.5" customHeight="1">
@@ -6629,25 +6640,25 @@
         <v>93</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E74" s="23" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F74" s="23" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G74" s="23" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H74" s="23" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="31.5" customHeight="1">
@@ -6655,25 +6666,25 @@
         <v>94</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="E75" s="23" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F75" s="23" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G75" s="23" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H75" s="23" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="31.5" customHeight="1">
@@ -6681,25 +6692,25 @@
         <v>95</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E76" s="23" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F76" s="23" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="G76" s="23" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="H76" s="23" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="31.5" customHeight="1">
@@ -6707,25 +6718,25 @@
         <v>96</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>649</v>
+        <v>680</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E77" s="23" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F77" s="23" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G77" s="23" t="s">
-        <v>455</v>
+        <v>681</v>
       </c>
       <c r="H77" s="23" t="s">
-        <v>580</v>
+        <v>682</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="31.5" customHeight="1">
@@ -6733,25 +6744,25 @@
         <v>97</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E78" s="23" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F78" s="23" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="G78" s="23" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H78" s="23" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="31.5" customHeight="1">
@@ -6759,25 +6770,25 @@
         <v>98</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E79" s="23" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F79" s="23" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="G79" s="23" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H79" s="23" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="31.5" customHeight="1">
@@ -6785,25 +6796,25 @@
         <v>99</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D80" s="23" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E80" s="23" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F80" s="23" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="G80" s="23" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H80" s="23" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="31.5" customHeight="1">
@@ -6811,25 +6822,25 @@
         <v>100</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D81" s="23" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E81" s="23" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F81" s="23" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G81" s="23" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H81" s="23" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="31.5" customHeight="1">
@@ -6837,25 +6848,25 @@
         <v>101</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E82" s="23" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F82" s="23" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G82" s="23" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H82" s="23" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="31.5" customHeight="1">
@@ -6863,25 +6874,25 @@
         <v>102</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E83" s="23" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F83" s="23" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G83" s="23" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H83" s="23" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="31.5" customHeight="1">
@@ -6889,25 +6900,25 @@
         <v>103</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="C84" s="23" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E84" s="23" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F84" s="23" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G84" s="23" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H84" s="23" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="31.5" customHeight="1">
@@ -6915,25 +6926,25 @@
         <v>104</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E85" s="23" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="F85" s="23" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="G85" s="23" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="H85" s="23" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="31.5" customHeight="1">
@@ -6941,25 +6952,25 @@
         <v>105</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E86" s="23" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F86" s="23" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G86" s="23" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="H86" s="23" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="31.5" customHeight="1">
@@ -6967,25 +6978,25 @@
         <v>106</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D87" s="23" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E87" s="23" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F87" s="23" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="G87" s="23" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H87" s="23" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="31.5" customHeight="1">
@@ -6993,25 +7004,25 @@
         <v>107</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="E88" s="23" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F88" s="23" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G88" s="23" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H88" s="23" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="31.5" customHeight="1">
@@ -7019,25 +7030,25 @@
         <v>108</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="C89" s="23" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="E89" s="23" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F89" s="23" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G89" s="23" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="H89" s="23" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="31.5" customHeight="1">
@@ -7045,25 +7056,25 @@
         <v>109</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="C90" s="23" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D90" s="23" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="E90" s="23" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F90" s="23" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G90" s="23" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H90" s="23" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="31.5" customHeight="1">
@@ -7071,25 +7082,25 @@
         <v>110</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="C91" s="23" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="D91" s="23" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="E91" s="23" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="F91" s="23" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="G91" s="23" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="H91" s="23" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="31.5" customHeight="1">
@@ -7097,7 +7108,7 @@
         <v>111</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="C92" s="23">
         <v>24</v>
@@ -7112,10 +7123,10 @@
         <v>56</v>
       </c>
       <c r="G92" s="23" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="H92" s="23" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="31.5" customHeight="1">
@@ -7123,25 +7134,25 @@
         <v>112</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="C93" s="23" t="s">
+        <v>593</v>
+      </c>
+      <c r="D93" s="23" t="s">
+        <v>594</v>
+      </c>
+      <c r="E93" s="23" t="s">
+        <v>595</v>
+      </c>
+      <c r="F93" s="23" t="s">
         <v>598</v>
       </c>
-      <c r="D93" s="23" t="s">
-        <v>599</v>
-      </c>
-      <c r="E93" s="23" t="s">
-        <v>600</v>
-      </c>
-      <c r="F93" s="23" t="s">
-        <v>603</v>
-      </c>
       <c r="G93" s="23" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="H93" s="23" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="31.5" customHeight="1">
@@ -7149,25 +7160,25 @@
         <v>113</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="C94" s="23" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="D94" s="23" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="E94" s="23" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="F94" s="23" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="G94" s="23" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="H94" s="23" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="31.5" customHeight="1">
@@ -7175,25 +7186,25 @@
         <v>114</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="C95" s="23" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="D95" s="23" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="E95" s="23" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="F95" s="23" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G95" s="23" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="H95" s="23" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="31.5" customHeight="1">
@@ -7201,7 +7212,7 @@
         <v>115</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="C96" s="24">
         <v>0.7</v>
@@ -7216,10 +7227,10 @@
         <v>0.95</v>
       </c>
       <c r="G96" s="23" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="H96" s="23" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="31.5" customHeight="1">
@@ -7227,7 +7238,7 @@
         <v>116</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="C97" s="25">
         <v>9.7000000000000003E-2</v>
@@ -7239,13 +7250,13 @@
         <v>0.13100000000000001</v>
       </c>
       <c r="F97" s="23" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="G97" s="23" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="H97" s="23" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="31.5" customHeight="1">
@@ -7253,25 +7264,25 @@
         <v>117</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="D98" s="23" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="E98" s="23" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F98" s="23" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G98" s="23" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="H98" s="23" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="31.5" customHeight="1">
@@ -7279,25 +7290,25 @@
         <v>118</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D99" s="23" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="E99" s="23" t="s">
+        <v>627</v>
+      </c>
+      <c r="F99" s="23" t="s">
+        <v>628</v>
+      </c>
+      <c r="G99" s="23" t="s">
+        <v>592</v>
+      </c>
+      <c r="H99" s="23" t="s">
         <v>632</v>
-      </c>
-      <c r="F99" s="23" t="s">
-        <v>633</v>
-      </c>
-      <c r="G99" s="23" t="s">
-        <v>597</v>
-      </c>
-      <c r="H99" s="23" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="31.5" customHeight="1">
@@ -7305,25 +7316,25 @@
         <v>119</v>
       </c>
       <c r="B100" s="23" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="D100" s="23" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="E100" s="23" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F100" s="23" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G100" s="23" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="H100" s="23" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="31.5" customHeight="1">
@@ -7331,25 +7342,25 @@
         <v>120</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="D101" s="23" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="E101" s="23" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="F101" s="23" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="G101" s="23" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="H101" s="23" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="31.5" customHeight="1">
@@ -7357,25 +7368,25 @@
         <v>121</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="E102" s="23" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="F102" s="23" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="G102" s="23" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="H102" s="23" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
